--- a/server/uploads/Book1.xlsx
+++ b/server/uploads/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maytiwar\Desktop\IMS\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maytiwar\Desktop\SMS\project\IMSApp\server\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8BB31361-D54F-4C66-A259-21D7E6302323}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6876C0EA-D0CC-482E-B5BE-6842BA84E83D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{FB8675D0-6C37-40F9-9152-93F0156E459B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -88,12 +88,18 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>kapvyass</t>
+  </si>
+  <si>
+    <t>kapf@df.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,8 +146,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{7400A930-282A-4554-ABA2-8D361D932EF6}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -450,19 +484,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E568482-B2F6-445B-A2E9-27259287FF7F}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -517,7 +551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -540,6 +574,32 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -547,8 +607,9 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{142C0304-B756-44D1-AA9B-6F9E3009ED00}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{775754AA-6214-4C3D-BE4F-B42E0931CF36}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{393E471E-100C-4AB3-833A-9BF024B78463}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
--- a/server/uploads/Book1.xlsx
+++ b/server/uploads/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maytiwar\Desktop\SMS\project\IMSApp\server\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6876C0EA-D0CC-482E-B5BE-6842BA84E83D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1BB4F02E-5677-4C39-BA54-F863D99D4D5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{FB8675D0-6C37-40F9-9152-93F0156E459B}"/>
   </bookViews>
@@ -90,10 +90,10 @@
     <t>Active</t>
   </si>
   <si>
-    <t>kapvyass</t>
-  </si>
-  <si>
     <t>kapf@df.com</t>
+  </si>
+  <si>
+    <t>amit</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,16 +579,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -605,9 +605,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{142C0304-B756-44D1-AA9B-6F9E3009ED00}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{775754AA-6214-4C3D-BE4F-B42E0931CF36}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{393E471E-100C-4AB3-833A-9BF024B78463}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{775754AA-6214-4C3D-BE4F-B42E0931CF36}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{393E471E-100C-4AB3-833A-9BF024B78463}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{142C0304-B756-44D1-AA9B-6F9E3009ED00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>

--- a/server/uploads/Book1.xlsx
+++ b/server/uploads/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maytiwar\Desktop\SMS\project\IMSApp\server\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maytiwar\Desktop\IMS\IMSApp\server\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1BB4F02E-5677-4C39-BA54-F863D99D4D5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C4A1B9CC-639F-47A1-BC18-88DF3BFCD123}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{FB8675D0-6C37-40F9-9152-93F0156E459B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -42,9 +42,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>mayti</t>
-  </si>
-  <si>
     <t>mayank</t>
   </si>
   <si>
@@ -60,15 +57,9 @@
     <t>kapvyas</t>
   </si>
   <si>
-    <t>kapil</t>
-  </si>
-  <si>
     <t>vyas</t>
   </si>
   <si>
-    <t>kap@df.com</t>
-  </si>
-  <si>
     <t>role1</t>
   </si>
   <si>
@@ -94,6 +85,12 @@
   </si>
   <si>
     <t>amit</t>
+  </si>
+  <si>
+    <t>admins</t>
+  </si>
+  <si>
+    <t>teachers</t>
   </si>
 </sst>
 </file>
@@ -487,16 +484,16 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,103 +510,91 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I4" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{775754AA-6214-4C3D-BE4F-B42E0931CF36}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{393E471E-100C-4AB3-833A-9BF024B78463}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{142C0304-B756-44D1-AA9B-6F9E3009ED00}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{393E471E-100C-4AB3-833A-9BF024B78463}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{142C0304-B756-44D1-AA9B-6F9E3009ED00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/server/uploads/Book1.xlsx
+++ b/server/uploads/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maytiwar\Desktop\IMS\IMSApp\server\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maytiwar\Desktop\SMS\project\IMSApp\server\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C4A1B9CC-639F-47A1-BC18-88DF3BFCD123}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{89D5292C-03F3-44AE-B317-BAD8A43E1D24}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{FB8675D0-6C37-40F9-9152-93F0156E459B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -87,10 +87,16 @@
     <t>amit</t>
   </si>
   <si>
-    <t>admins</t>
-  </si>
-  <si>
-    <t>teachers</t>
+    <t>kapvyas@gf.com</t>
+  </si>
+  <si>
+    <t>maytiwar</t>
+  </si>
+  <si>
+    <t>kapil</t>
+  </si>
+  <si>
+    <t>Vyas</t>
   </si>
 </sst>
 </file>
@@ -487,13 +493,13 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +528,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -536,7 +545,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -545,14 +554,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
@@ -560,18 +574,21 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -593,8 +610,9 @@
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{393E471E-100C-4AB3-833A-9BF024B78463}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{142C0304-B756-44D1-AA9B-6F9E3009ED00}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{DFA29A66-CC07-456B-8C17-63651817F277}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>